--- a/1c_reports/Вересень/2022-09-01_2022-09-04/payments_report.xlsx
+++ b/1c_reports/Вересень/2022-09-01_2022-09-04/payments_report.xlsx
@@ -4383,7 +4383,7 @@
         <v>5</v>
       </c>
       <c r="R6" s="8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>36</v>
@@ -5040,9 +5040,7 @@
       <c r="Q16" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="R16" s="8" t="n">
-        <v>40</v>
-      </c>
+      <c r="R16" s="9" t="e"/>
       <c r="S16" s="5" t="s">
         <v>36</v>
       </c>
@@ -5503,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>36</v>
@@ -6492,9 +6490,7 @@
       <c r="Q38" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R38" s="8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" s="9" t="e"/>
       <c r="S38" s="5" t="s">
         <v>36</v>
       </c>
@@ -7984,9 +7980,11 @@
         <v>445</v>
       </c>
       <c r="Q61" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" s="9" t="e"/>
+        <v>4</v>
+      </c>
+      <c r="R61" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="S61" s="5" t="s">
         <v>36</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="R82" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S82" s="5" t="s">
         <v>36</v>
@@ -9417,7 +9415,7 @@
         <v>4</v>
       </c>
       <c r="R83" s="8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S83" s="5" t="s">
         <v>36</v>
@@ -9485,7 +9483,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S84" s="5" t="s">
         <v>36</v>
@@ -9553,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S85" s="5" t="s">
         <v>36</v>
@@ -9621,7 +9619,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S86" s="5" t="s">
         <v>36</v>
@@ -9689,7 +9687,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87" s="5" t="s">
         <v>36</v>
@@ -9757,7 +9755,7 @@
         <v>4</v>
       </c>
       <c r="R88" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S88" s="5" t="s">
         <v>36</v>
@@ -9961,7 +9959,7 @@
         <v>4</v>
       </c>
       <c r="R91" s="8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S91" s="5" t="s">
         <v>36</v>
@@ -10029,7 +10027,7 @@
         <v>4</v>
       </c>
       <c r="R92" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S92" s="5" t="s">
         <v>36</v>
@@ -10424,9 +10422,7 @@
       <c r="Q98" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="R98" s="8" t="n">
-        <v>8</v>
-      </c>
+      <c r="R98" s="9" t="e"/>
       <c r="S98" s="5" t="s">
         <v>36</v>
       </c>
@@ -10823,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="R104" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S104" s="5" t="s">
         <v>36</v>
@@ -11218,9 +11214,7 @@
       <c r="Q110" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R110" s="8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R110" s="9" t="e"/>
       <c r="S110" s="5" t="s">
         <v>36</v>
       </c>
@@ -12204,9 +12198,7 @@
       <c r="Q125" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R125" s="8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R125" s="9" t="e"/>
       <c r="S125" s="5" t="s">
         <v>36</v>
       </c>
@@ -12654,7 +12646,9 @@
       <c r="Q132" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R132" s="9" t="e"/>
+      <c r="R132" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="S132" s="5" t="s">
         <v>36</v>
       </c>
@@ -12720,7 +12714,9 @@
       <c r="Q133" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R133" s="9" t="e"/>
+      <c r="R133" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="S133" s="5" t="s">
         <v>36</v>
       </c>
@@ -12916,9 +12912,7 @@
       <c r="Q136" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R136" s="8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R136" s="9" t="e"/>
       <c r="S136" s="5" t="s">
         <v>36</v>
       </c>
@@ -12983,7 +12977,7 @@
         <v>36</v>
       </c>
       <c r="R137" s="8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>36</v>
@@ -13050,9 +13044,7 @@
       <c r="Q138" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R138" s="8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R138" s="9" t="e"/>
       <c r="S138" s="5" t="s">
         <v>36</v>
       </c>
@@ -13445,7 +13437,7 @@
         <v>4</v>
       </c>
       <c r="R144" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S144" s="5" t="s">
         <v>36</v>
@@ -13580,7 +13572,9 @@
       <c r="Q146" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="R146" s="9" t="e"/>
+      <c r="R146" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="S146" s="5" t="s">
         <v>36</v>
       </c>
@@ -13842,9 +13836,11 @@
         <v>916</v>
       </c>
       <c r="Q150" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="R150" s="9" t="e"/>
+        <v>8</v>
+      </c>
+      <c r="R150" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="S150" s="5" t="s">
         <v>36</v>
       </c>
@@ -14369,7 +14365,7 @@
         <v>4</v>
       </c>
       <c r="R158" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S158" s="5" t="s">
         <v>36</v>
@@ -15433,7 +15429,7 @@
         <v>4</v>
       </c>
       <c r="R174" s="8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S174" s="5" t="s">
         <v>36</v>
@@ -15899,7 +15895,7 @@
         <v>4</v>
       </c>
       <c r="R181" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S181" s="5" t="s">
         <v>36</v>
@@ -15967,7 +15963,7 @@
         <v>4</v>
       </c>
       <c r="R182" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S182" s="5" t="s">
         <v>36</v>
@@ -18409,7 +18405,7 @@
         <v>4</v>
       </c>
       <c r="R219" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S219" s="5" t="s">
         <v>36</v>
@@ -20212,10 +20208,10 @@
         <v>1325</v>
       </c>
       <c r="Q247" s="15" t="n">
-        <v>1.254</v>
+        <v>1.256</v>
       </c>
       <c r="R247" s="16" t="n">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="S247" s="3" t="s">
         <v>36</v>
@@ -20714,7 +20710,7 @@
     <mergeCell ref="F246:G246"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait"/>
+  <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9" useFirstPageNumber="true" firstPageNumber="1"/>
   <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
